--- a/Simulazioni_RL/Risultati/Strategy/performance_bbc_test_timesteps_2400_ripetizioni_100.xlsx
+++ b/Simulazioni_RL/Risultati/Strategy/performance_bbc_test_timesteps_2400_ripetizioni_100.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\simglucose\Simulazioni_RL\Risultati\Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAE12723-A39B-44EC-A7F0-DE8537FAD0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5121A155-2FD3-49A2-A3C6-0FA061D5EDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,8 +25,20 @@
     <sheet name="adult#009" sheetId="10" r:id="rId10"/>
     <sheet name="adult#010" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -434,7 +446,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -491,7 +503,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -794,13 +806,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.62890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.89453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5234375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.41796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
@@ -1317,6 +1343,28 @@
       </c>
       <c r="O11" s="2">
         <v>44624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13">
+        <f>AVERAGE(B2:B11)</f>
+        <v>90.379833333333323</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(D2:D11)</f>
+        <v>6.088750000000001</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(F2:F11)</f>
+        <v>2.2873749999999999</v>
+      </c>
+      <c r="H13">
+        <f>AVERAGE(H2:H11)</f>
+        <v>0.23620833333333335</v>
+      </c>
+      <c r="J13">
+        <f>AVERAGE(J2:J11)</f>
+        <v>1.0078333333333334</v>
       </c>
     </row>
   </sheetData>
